--- a/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="o554F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="o554F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +961,7 @@
         <v>0.9930179645280146</v>
       </c>
       <c r="G13">
-        <v>0.9927666452891547</v>
+        <v>0.9927666452891548</v>
       </c>
       <c r="H13">
         <v>0.9947610313295205</v>
@@ -979,7 +979,7 @@
         <v>0.9935432000882993</v>
       </c>
       <c r="M13">
-        <v>0.993763396395824</v>
+        <v>0.9937633963958241</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.994748101490313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.032673728103569</v>
+      </c>
+      <c r="D16">
+        <v>0.8643542507254005</v>
+      </c>
+      <c r="E16">
+        <v>1.021053435571271</v>
+      </c>
+      <c r="F16">
+        <v>1.032673728103569</v>
+      </c>
+      <c r="G16">
+        <v>0.9265996657552829</v>
+      </c>
+      <c r="H16">
+        <v>1.066101540864504</v>
+      </c>
+      <c r="I16">
+        <v>1.024103850120611</v>
+      </c>
+      <c r="J16">
+        <v>0.8643542507254005</v>
+      </c>
+      <c r="K16">
+        <v>0.9427038431483357</v>
+      </c>
+      <c r="L16">
+        <v>0.9876887856259524</v>
+      </c>
+      <c r="M16">
+        <v>0.9891477451901065</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.032673728103569</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
@@ -964,7 +964,7 @@
         <v>0.9930179645280146</v>
       </c>
       <c r="G13">
-        <v>0.9927666452891548</v>
+        <v>0.9927666452891547</v>
       </c>
       <c r="H13">
         <v>0.9947610313295205</v>
@@ -982,7 +982,7 @@
         <v>0.9935432000882993</v>
       </c>
       <c r="M13">
-        <v>0.9937633963958241</v>
+        <v>0.993763396395824</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.020007999999999</v>
+        <v>1.032673728103569</v>
       </c>
       <c r="D10">
-        <v>0.7676199999999996</v>
+        <v>0.8643542507254005</v>
       </c>
       <c r="E10">
-        <v>1.062527999999997</v>
+        <v>1.021053435571271</v>
       </c>
       <c r="F10">
-        <v>1.020007999999999</v>
+        <v>1.032673728103569</v>
       </c>
       <c r="G10">
-        <v>0.8543159999999993</v>
+        <v>0.9265996657552829</v>
       </c>
       <c r="H10">
-        <v>1.211555999999998</v>
+        <v>1.066101540864504</v>
       </c>
       <c r="I10">
-        <v>1.055236</v>
+        <v>1.024103850120611</v>
       </c>
       <c r="J10">
-        <v>0.7676199999999996</v>
+        <v>0.8643542507254005</v>
       </c>
       <c r="K10">
-        <v>0.9150739999999984</v>
+        <v>0.9427038431483357</v>
       </c>
       <c r="L10">
-        <v>0.9675409999999987</v>
+        <v>0.9876887856259524</v>
       </c>
       <c r="M10">
-        <v>0.9952106666666655</v>
+        <v>0.9891477451901065</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.06</v>
+        <v>0.9941069376067498</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>1.012971994456703</v>
       </c>
       <c r="E11">
-        <v>1.13</v>
+        <v>0.9850779101266958</v>
       </c>
       <c r="F11">
-        <v>1.06</v>
+        <v>0.9941069376067498</v>
       </c>
       <c r="G11">
-        <v>0.71</v>
+        <v>1.006862613338256</v>
       </c>
       <c r="H11">
-        <v>1.42</v>
+        <v>0.9707811741231792</v>
       </c>
       <c r="I11">
-        <v>1.12</v>
+        <v>0.9880142910832181</v>
       </c>
       <c r="J11">
-        <v>0.53</v>
+        <v>1.012971994456703</v>
       </c>
       <c r="K11">
-        <v>0.83</v>
+        <v>0.9990249522916992</v>
       </c>
       <c r="L11">
-        <v>0.945</v>
+        <v>0.9965659449492246</v>
       </c>
       <c r="M11">
-        <v>0.995</v>
+        <v>0.9929691534558002</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.033209291776001</v>
+        <v>0.9938093764794367</v>
       </c>
       <c r="D12">
-        <v>0.7227537082368027</v>
+        <v>1.013614829659953</v>
       </c>
       <c r="E12">
-        <v>1.073310678425593</v>
+        <v>0.985006127000368</v>
       </c>
       <c r="F12">
-        <v>1.033209291776001</v>
+        <v>0.9938093764794367</v>
       </c>
       <c r="G12">
-        <v>0.8294759099392022</v>
+        <v>1.007183389748223</v>
       </c>
       <c r="H12">
-        <v>1.238981451776</v>
+        <v>0.9705574649248575</v>
       </c>
       <c r="I12">
-        <v>1.066107799961595</v>
+        <v>0.9878764505586615</v>
       </c>
       <c r="J12">
-        <v>0.7227537082368027</v>
+        <v>1.013614829659953</v>
       </c>
       <c r="K12">
-        <v>0.8980321933311981</v>
+        <v>0.9993104783301604</v>
       </c>
       <c r="L12">
-        <v>0.9656207425535993</v>
+        <v>0.9965599274047985</v>
       </c>
       <c r="M12">
-        <v>0.9939731400191988</v>
+        <v>0.993007939728583</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9930179645280146</v>
+        <v>0.9940830682863065</v>
       </c>
       <c r="D13">
-        <v>0.9941276991733841</v>
+        <v>1.013025785365</v>
       </c>
       <c r="E13">
-        <v>0.9940091721237836</v>
+        <v>0.9850841377416459</v>
       </c>
       <c r="F13">
-        <v>0.9930179645280146</v>
+        <v>0.9940830682863065</v>
       </c>
       <c r="G13">
-        <v>0.9927666452891547</v>
+        <v>1.006914543031497</v>
       </c>
       <c r="H13">
-        <v>0.9947610313295205</v>
+        <v>0.9707189099938528</v>
       </c>
       <c r="I13">
-        <v>0.9938978659310861</v>
+        <v>0.9879848282750348</v>
       </c>
       <c r="J13">
-        <v>0.9941276991733841</v>
+        <v>1.013025785365</v>
       </c>
       <c r="K13">
-        <v>0.9940684356485838</v>
+        <v>0.9990549615533229</v>
       </c>
       <c r="L13">
-        <v>0.9935432000882993</v>
+        <v>0.9965690149198146</v>
       </c>
       <c r="M13">
-        <v>0.993763396395824</v>
+        <v>0.9929685454488894</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9825457590913202</v>
+        <v>1.020007999999999</v>
       </c>
       <c r="D14">
-        <v>1.013663065004206</v>
+        <v>0.7676199999999996</v>
       </c>
       <c r="E14">
-        <v>0.9902969904651262</v>
+        <v>1.062527999999997</v>
       </c>
       <c r="F14">
-        <v>0.9825457590913202</v>
+        <v>1.020007999999999</v>
       </c>
       <c r="G14">
-        <v>1.003027047888437</v>
+        <v>0.8543159999999993</v>
       </c>
       <c r="H14">
-        <v>0.9892074013281184</v>
+        <v>1.211555999999998</v>
       </c>
       <c r="I14">
-        <v>0.9894199989105364</v>
+        <v>1.055236</v>
       </c>
       <c r="J14">
-        <v>1.013663065004206</v>
+        <v>0.7676199999999996</v>
       </c>
       <c r="K14">
-        <v>1.001980027734666</v>
+        <v>0.9150739999999984</v>
       </c>
       <c r="L14">
-        <v>0.9922628934129931</v>
+        <v>0.9675409999999987</v>
       </c>
       <c r="M14">
-        <v>0.9946933771146239</v>
+        <v>0.9952106666666655</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9819651703846303</v>
+        <v>1.06</v>
       </c>
       <c r="D15">
-        <v>1.047891815613572</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.9801356857290925</v>
+        <v>1.13</v>
       </c>
       <c r="F15">
-        <v>0.9819651703846303</v>
+        <v>1.06</v>
       </c>
       <c r="G15">
-        <v>1.025081312601173</v>
+        <v>0.71</v>
       </c>
       <c r="H15">
-        <v>0.9548731253799514</v>
+        <v>1.42</v>
       </c>
       <c r="I15">
-        <v>0.9785414992334591</v>
+        <v>1.12</v>
       </c>
       <c r="J15">
-        <v>1.047891815613572</v>
+        <v>0.53</v>
       </c>
       <c r="K15">
-        <v>1.014013750671332</v>
+        <v>0.83</v>
       </c>
       <c r="L15">
-        <v>0.9979894605279813</v>
+        <v>0.945</v>
       </c>
       <c r="M15">
-        <v>0.994748101490313</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.032673728103569</v>
+        <v>1.033209291776001</v>
       </c>
       <c r="D16">
-        <v>0.8643542507254005</v>
+        <v>0.7227537082368027</v>
       </c>
       <c r="E16">
-        <v>1.021053435571271</v>
+        <v>1.073310678425593</v>
       </c>
       <c r="F16">
-        <v>1.032673728103569</v>
+        <v>1.033209291776001</v>
       </c>
       <c r="G16">
-        <v>0.9265996657552829</v>
+        <v>0.8294759099392022</v>
       </c>
       <c r="H16">
-        <v>1.066101540864504</v>
+        <v>1.238981451776</v>
       </c>
       <c r="I16">
-        <v>1.024103850120611</v>
+        <v>1.066107799961595</v>
       </c>
       <c r="J16">
-        <v>0.8643542507254005</v>
+        <v>0.7227537082368027</v>
       </c>
       <c r="K16">
-        <v>0.9427038431483357</v>
+        <v>0.8980321933311981</v>
       </c>
       <c r="L16">
-        <v>0.9876887856259524</v>
+        <v>0.9656207425535993</v>
       </c>
       <c r="M16">
-        <v>0.9891477451901065</v>
+        <v>0.9939731400191988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9930179645280146</v>
+      </c>
+      <c r="D17">
+        <v>0.9941276991733841</v>
+      </c>
+      <c r="E17">
+        <v>0.9940091721237836</v>
+      </c>
+      <c r="F17">
+        <v>0.9930179645280146</v>
+      </c>
+      <c r="G17">
+        <v>0.9927666452891548</v>
+      </c>
+      <c r="H17">
+        <v>0.9947610313295205</v>
+      </c>
+      <c r="I17">
+        <v>0.9938978659310861</v>
+      </c>
+      <c r="J17">
+        <v>0.9941276991733841</v>
+      </c>
+      <c r="K17">
+        <v>0.9940684356485838</v>
+      </c>
+      <c r="L17">
+        <v>0.9935432000882993</v>
+      </c>
+      <c r="M17">
+        <v>0.9937633963958241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9825457590913202</v>
+      </c>
+      <c r="D18">
+        <v>1.013663065004206</v>
+      </c>
+      <c r="E18">
+        <v>0.9902969904651262</v>
+      </c>
+      <c r="F18">
+        <v>0.9825457590913202</v>
+      </c>
+      <c r="G18">
+        <v>1.003027047888437</v>
+      </c>
+      <c r="H18">
+        <v>0.9892074013281184</v>
+      </c>
+      <c r="I18">
+        <v>0.9894199989105364</v>
+      </c>
+      <c r="J18">
+        <v>1.013663065004206</v>
+      </c>
+      <c r="K18">
+        <v>1.001980027734666</v>
+      </c>
+      <c r="L18">
+        <v>0.9922628934129931</v>
+      </c>
+      <c r="M18">
+        <v>0.9946933771146239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9819651703846303</v>
+      </c>
+      <c r="D19">
+        <v>1.047891815613572</v>
+      </c>
+      <c r="E19">
+        <v>0.9801356857290925</v>
+      </c>
+      <c r="F19">
+        <v>0.9819651703846303</v>
+      </c>
+      <c r="G19">
+        <v>1.025081312601173</v>
+      </c>
+      <c r="H19">
+        <v>0.9548731253799514</v>
+      </c>
+      <c r="I19">
+        <v>0.9785414992334591</v>
+      </c>
+      <c r="J19">
+        <v>1.047891815613572</v>
+      </c>
+      <c r="K19">
+        <v>1.014013750671332</v>
+      </c>
+      <c r="L19">
+        <v>0.9979894605279813</v>
+      </c>
+      <c r="M19">
+        <v>0.994748101490313</v>
       </c>
     </row>
   </sheetData>
